--- a/cos/cos-spotlight-news-old.xlsx
+++ b/cos/cos-spotlight-news-old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmk424/Documents/GitHub/csv-tool/cos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD66676-C905-BD4F-802E-84C694346396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0BB6EC-D2BA-3E45-A464-CABB0654AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{52075626-B5B0-D74C-86C8-AA12D6B578CD}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{52075626-B5B0-D74C-86C8-AA12D6B578CD}"/>
   </bookViews>
   <sheets>
     <sheet name="spotlights" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="142">
   <si>
     <t>Status</t>
   </si>
@@ -439,6 +439,30 @@
   </si>
   <si>
     <t>news,spotlight,physics-and-astronomy</t>
+  </si>
+  <si>
+    <t>faculty luncheon</t>
+  </si>
+  <si>
+    <t>KC Gonzalez and Ryan Schoensee</t>
+  </si>
+  <si>
+    <t>lecture audience</t>
+  </si>
+  <si>
+    <t>dean and students</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>awards</t>
+  </si>
+  <si>
+    <t>awardees</t>
+  </si>
+  <si>
+    <t>Kaitlyn Varela</t>
   </si>
 </sst>
 </file>
@@ -448,7 +472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -514,6 +538,20 @@
     <font>
       <i/>
       <sz val="14"/>
+      <color rgb="FF1F59A3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF1F59A3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
       <color rgb="FF1F59A3"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -606,7 +644,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -665,12 +703,27 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -679,107 +732,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4472C4"/>
-          <bgColor rgb="FF4472C4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF8EA9DB"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -841,6 +793,9 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -860,6 +815,72 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -900,6 +921,38 @@
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF8EA9DB"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF4472C4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -920,28 +973,24 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{064349F5-5692-8A41-B0DD-A2177605D8CB}" name="Table8" displayName="Table8" ref="B1:O18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="16" headerRowBorderDxfId="8">
-  <autoFilter ref="B1:O18" xr:uid="{064349F5-5692-8A41-B0DD-A2177605D8CB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{064349F5-5692-8A41-B0DD-A2177605D8CB}" name="Table8" displayName="Table8" ref="B1:O19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
+  <autoFilter ref="B1:O19" xr:uid="{064349F5-5692-8A41-B0DD-A2177605D8CB}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{7B59A33F-1914-4245-8504-EEC3F1753730}" name="Title" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{02B2BAE4-46A1-0241-9A0B-5063A8155009}" name="Date" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{34F714A7-5492-524D-8858-2B299CA4C0DF}" name="Post Type" dataDxfId="4" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{FDF3D968-8675-A14C-8271-1511B4FA6238}" name="URI" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{37CEBE13-6F93-4C4F-A91C-5E3D0B3FB802}" name="Permalink" dataDxfId="6" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{D514FC9F-92BD-B849-A78C-94C6547D0592}" name="Image URL" dataDxfId="5" dataCellStyle="Bad"/>
-    <tableColumn id="6" xr3:uid="{162E59FF-567D-0447-A485-49ED0EDD4BE8}" name="AdjustPath" dataDxfId="0" dataCellStyle="Bad"/>
-    <tableColumn id="7" xr3:uid="{05387F6B-18AD-AB4A-B888-31C8B88940FA}" name="Image Title" dataDxfId="1" dataCellStyle="Bad"/>
-    <tableColumn id="8" xr3:uid="{26067718-9148-8748-9EA1-F1182B0622DC}" name="Image Alt Text" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{F9998E02-764F-D841-AADA-939187A08A28}" name="Image Featured" dataDxfId="13" dataCellStyle="Bad"/>
-    <tableColumn id="13" xr3:uid="{9B3AF1FB-5C8D-3B4E-846E-BFDEEE4F9FEC}" name="Tags" dataDxfId="2" dataCellStyle="Bad"/>
-    <tableColumn id="10" xr3:uid="{26EB0492-BDEB-C64C-8715-AFE38D541217}" name="Department" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{81059B42-9FD7-A54A-9C52-1E4C1457A0B8}" name="page_description" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{78F67F1F-3387-F74B-A85B-7FB6ED3139C7}" name="Status" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{7B59A33F-1914-4245-8504-EEC3F1753730}" name="Title" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{02B2BAE4-46A1-0241-9A0B-5063A8155009}" name="Date" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{34F714A7-5492-524D-8858-2B299CA4C0DF}" name="Post Type" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{FDF3D968-8675-A14C-8271-1511B4FA6238}" name="URI" dataDxfId="10" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{37CEBE13-6F93-4C4F-A91C-5E3D0B3FB802}" name="Permalink" dataDxfId="9" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{D514FC9F-92BD-B849-A78C-94C6547D0592}" name="Image URL" dataDxfId="8" dataCellStyle="Bad"/>
+    <tableColumn id="6" xr3:uid="{162E59FF-567D-0447-A485-49ED0EDD4BE8}" name="AdjustPath" dataDxfId="7" dataCellStyle="Bad"/>
+    <tableColumn id="7" xr3:uid="{05387F6B-18AD-AB4A-B888-31C8B88940FA}" name="Image Title" dataDxfId="6" dataCellStyle="Bad"/>
+    <tableColumn id="8" xr3:uid="{26067718-9148-8748-9EA1-F1182B0622DC}" name="Image Alt Text" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{F9998E02-764F-D841-AADA-939187A08A28}" name="Image Featured" dataDxfId="4" dataCellStyle="Bad"/>
+    <tableColumn id="13" xr3:uid="{9B3AF1FB-5C8D-3B4E-846E-BFDEEE4F9FEC}" name="Tags" dataDxfId="3" dataCellStyle="Bad"/>
+    <tableColumn id="10" xr3:uid="{26EB0492-BDEB-C64C-8715-AFE38D541217}" name="Department" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{81059B42-9FD7-A54A-9C52-1E4C1457A0B8}" name="page_description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{78F67F1F-3387-F74B-A85B-7FB6ED3139C7}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1244,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC19DDBF-C57D-804C-9350-5A1D0E37E3B2}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1355,7 +1404,7 @@
       <c r="L2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N2" s="5"/>
@@ -1371,7 +1420,7 @@
       <c r="B3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>43843</v>
       </c>
       <c r="D3" s="18"/>
@@ -1397,7 +1446,7 @@
       <c r="L3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="5"/>
@@ -1439,7 +1488,7 @@
       <c r="L4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N4" s="5"/>
@@ -1481,7 +1530,7 @@
       <c r="L5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N5" s="5"/>
@@ -1497,7 +1546,7 @@
       <c r="B6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>44306</v>
       </c>
       <c r="D6" s="18"/>
@@ -1523,7 +1572,7 @@
       <c r="L6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N6" s="5"/>
@@ -1539,7 +1588,7 @@
       <c r="B7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>44515</v>
       </c>
       <c r="D7" s="18"/>
@@ -1565,7 +1614,7 @@
       <c r="L7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N7" s="5"/>
@@ -1581,7 +1630,7 @@
       <c r="B8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>44690</v>
       </c>
       <c r="D8" s="18"/>
@@ -1607,7 +1656,7 @@
       <c r="L8" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N8" s="5"/>
@@ -1623,7 +1672,7 @@
       <c r="B9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>44690</v>
       </c>
       <c r="D9" s="18"/>
@@ -1649,7 +1698,7 @@
       <c r="L9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N9" s="5"/>
@@ -1665,7 +1714,7 @@
       <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>44754</v>
       </c>
       <c r="D10" s="18"/>
@@ -1691,7 +1740,7 @@
       <c r="L10" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N10" s="5"/>
@@ -1707,7 +1756,9 @@
       <c r="B11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="25">
+        <v>44784</v>
+      </c>
       <c r="D11" s="18"/>
       <c r="E11" t="s">
         <v>76</v>
@@ -1731,7 +1782,7 @@
       <c r="L11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N11" s="5"/>
@@ -1747,7 +1798,9 @@
       <c r="B12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="23">
+        <v>44788</v>
+      </c>
       <c r="D12" s="18"/>
       <c r="E12" t="s">
         <v>41</v>
@@ -1764,18 +1817,20 @@
       <c r="I12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="K12" s="15"/>
       <c r="L12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="20" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="21" t="s">
         <v>33</v>
@@ -1785,7 +1840,9 @@
       <c r="B13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="23">
+        <v>44880</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" t="s">
         <v>40</v>
@@ -1802,12 +1859,14 @@
       <c r="I13" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="K13" s="15"/>
       <c r="L13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N13" s="5"/>
@@ -1823,7 +1882,9 @@
       <c r="B14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="23">
+        <v>44895</v>
+      </c>
       <c r="D14" s="18"/>
       <c r="E14" t="s">
         <v>39</v>
@@ -1840,12 +1901,14 @@
       <c r="I14" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="K14" s="15"/>
       <c r="L14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N14" s="5"/>
@@ -1861,7 +1924,9 @@
       <c r="B15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="26">
+        <v>45040</v>
+      </c>
       <c r="D15" s="18"/>
       <c r="E15" t="s">
         <v>38</v>
@@ -1878,12 +1943,14 @@
       <c r="I15" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="K15" s="15"/>
       <c r="L15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N15" s="5"/>
@@ -1899,7 +1966,9 @@
       <c r="B16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="26">
+        <v>45042</v>
+      </c>
       <c r="D16" s="18"/>
       <c r="E16" t="s">
         <v>77</v>
@@ -1916,12 +1985,14 @@
       <c r="I16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="K16" s="15"/>
       <c r="L16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="M16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N16" s="5"/>
@@ -1937,7 +2008,9 @@
       <c r="B17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="27">
+        <v>45058</v>
+      </c>
       <c r="D17" s="18"/>
       <c r="E17" t="s">
         <v>78</v>
@@ -1954,12 +2027,14 @@
       <c r="I17" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="K17" s="15"/>
       <c r="L17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="22" t="s">
+      <c r="M17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="5"/>
@@ -1975,7 +2050,9 @@
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="24">
+        <v>45079</v>
+      </c>
       <c r="D18" s="18"/>
       <c r="E18" t="s">
         <v>37</v>
@@ -1992,12 +2069,14 @@
       <c r="I18" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="L18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N18" s="5"/>
@@ -2008,6 +2087,22 @@
       <c r="Q18" s="21" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2057,12 +2152,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4f261e42-318f-4522-97ff-c261786f331a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c715034-cc78-48f2-8596-569629518afa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2315,20 +2412,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4f261e42-318f-4522-97ff-c261786f331a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c715034-cc78-48f2-8596-569629518afa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7545618-AB63-4ABB-9E4F-F2257F02223C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7332C5CD-229D-4FFC-851E-55914D226360}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="4f261e42-318f-4522-97ff-c261786f331a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3c715034-cc78-48f2-8596-569629518afa"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2353,18 +2457,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7332C5CD-229D-4FFC-851E-55914D226360}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7545618-AB63-4ABB-9E4F-F2257F02223C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4f261e42-318f-4522-97ff-c261786f331a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3c715034-cc78-48f2-8596-569629518afa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>